--- a/data/pca/factorExposure/factorExposure_2012-01-11.xlsx
+++ b/data/pca/factorExposure/factorExposure_2012-01-11.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,18 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +701,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,24 +717,48 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>-0.01545317780831065</v>
+        <v>0.01531353873902937</v>
       </c>
       <c r="C2">
-        <v>0.03104130476617531</v>
+        <v>0.02627548446792965</v>
       </c>
       <c r="D2">
-        <v>-0.01680066989464024</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>-0.01787297888539248</v>
+      </c>
+      <c r="E2">
+        <v>0.0153337068848832</v>
+      </c>
+      <c r="F2">
+        <v>-0.02558969948191826</v>
+      </c>
+      <c r="G2">
+        <v>0.002884825715090577</v>
+      </c>
+      <c r="H2">
+        <v>0.04543349460221682</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -733,24 +769,48 @@
       <c r="D3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>-0.07427258255746558</v>
+        <v>0.08881257213206495</v>
       </c>
       <c r="C4">
-        <v>0.05133984297619519</v>
+        <v>0.03802870206545771</v>
       </c>
       <c r="D4">
-        <v>-0.08430215460006903</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>-0.06803612858748688</v>
+      </c>
+      <c r="E4">
+        <v>0.007848427160865134</v>
+      </c>
+      <c r="F4">
+        <v>-0.0370177350449062</v>
+      </c>
+      <c r="G4">
+        <v>-0.006847442403493053</v>
+      </c>
+      <c r="H4">
+        <v>-0.03939514603011277</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +821,308 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>-0.1131127562273653</v>
+        <v>0.1235059640160909</v>
       </c>
       <c r="C6">
-        <v>0.04941856922368206</v>
+        <v>0.03402149457946784</v>
       </c>
       <c r="D6">
-        <v>-0.004306375631023734</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>-0.0105072694013758</v>
+      </c>
+      <c r="E6">
+        <v>-0.02107103887074565</v>
+      </c>
+      <c r="F6">
+        <v>-0.04952116373485559</v>
+      </c>
+      <c r="G6">
+        <v>-0.03313500969359989</v>
+      </c>
+      <c r="H6">
+        <v>0.1299199175770858</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>-0.0537921546453351</v>
+        <v>0.06329095636288648</v>
       </c>
       <c r="C7">
-        <v>0.02559584187190058</v>
+        <v>0.01384238511672862</v>
       </c>
       <c r="D7">
-        <v>-0.03886387936362153</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>-0.05086240979983262</v>
+      </c>
+      <c r="E7">
+        <v>0.0319536547570588</v>
+      </c>
+      <c r="F7">
+        <v>-0.04449944010157236</v>
+      </c>
+      <c r="G7">
+        <v>0.03286936988335402</v>
+      </c>
+      <c r="H7">
+        <v>-0.02319705605978471</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>-0.04098881906623485</v>
+        <v>0.04277259672183958</v>
       </c>
       <c r="C8">
-        <v>0.01325948262838281</v>
+        <v>0.009100730305616153</v>
       </c>
       <c r="D8">
-        <v>-0.0614115888568303</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>-0.02526969991917077</v>
+      </c>
+      <c r="E8">
+        <v>0.02004226318129435</v>
+      </c>
+      <c r="F8">
+        <v>-0.06415644759757719</v>
+      </c>
+      <c r="G8">
+        <v>-0.05631623963348194</v>
+      </c>
+      <c r="H8">
+        <v>0.01196773860957209</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>-0.06905424064738888</v>
+        <v>0.07985199955326913</v>
       </c>
       <c r="C9">
-        <v>0.0387377596124779</v>
+        <v>0.02554414849390715</v>
       </c>
       <c r="D9">
-        <v>-0.0753080478458987</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>-0.06277465754178128</v>
+      </c>
+      <c r="E9">
+        <v>0.0265742079394652</v>
+      </c>
+      <c r="F9">
+        <v>-0.02907906613222418</v>
+      </c>
+      <c r="G9">
+        <v>-0.0172342348314072</v>
+      </c>
+      <c r="H9">
+        <v>-0.04660903744902772</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>-0.03199440191135788</v>
+        <v>0.04093040116249005</v>
       </c>
       <c r="C10">
-        <v>0.02721362914472817</v>
+        <v>0.05184476222368475</v>
       </c>
       <c r="D10">
-        <v>0.1717187001524115</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>0.1732479074306428</v>
+      </c>
+      <c r="E10">
+        <v>0.04170622393171162</v>
+      </c>
+      <c r="F10">
+        <v>-0.05543531153828721</v>
+      </c>
+      <c r="G10">
+        <v>0.02235459989378019</v>
+      </c>
+      <c r="H10">
+        <v>0.0328816146397684</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>-0.07198716580671746</v>
+        <v>0.07663417629583549</v>
       </c>
       <c r="C11">
-        <v>0.04126884142784626</v>
+        <v>0.02200816258684559</v>
       </c>
       <c r="D11">
-        <v>-0.05794712649661222</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>-0.06422150949445833</v>
+      </c>
+      <c r="E11">
+        <v>-0.006894095302739998</v>
+      </c>
+      <c r="F11">
+        <v>-0.03284139386577543</v>
+      </c>
+      <c r="G11">
+        <v>-0.02523778203627383</v>
+      </c>
+      <c r="H11">
+        <v>-0.07962633117619539</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>-0.06072652853403195</v>
+        <v>0.0691695182895737</v>
       </c>
       <c r="C12">
-        <v>0.05006802435206432</v>
+        <v>0.03393826952370982</v>
       </c>
       <c r="D12">
-        <v>-0.0450094097522587</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>-0.0481592067220419</v>
+      </c>
+      <c r="E12">
+        <v>0.01193168657229157</v>
+      </c>
+      <c r="F12">
+        <v>-0.02302002350387681</v>
+      </c>
+      <c r="G12">
+        <v>-0.01419457238386887</v>
+      </c>
+      <c r="H12">
+        <v>-0.0376658095270377</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>-0.06515070334662727</v>
+        <v>0.06724873444379514</v>
       </c>
       <c r="C13">
-        <v>0.03449818893921297</v>
+        <v>0.02034857294847362</v>
       </c>
       <c r="D13">
-        <v>-0.04791028790003393</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>-0.0397170971873174</v>
+      </c>
+      <c r="E13">
+        <v>0.0124357301651134</v>
+      </c>
+      <c r="F13">
+        <v>-0.0227666624681894</v>
+      </c>
+      <c r="G13">
+        <v>-0.00342703369210786</v>
+      </c>
+      <c r="H13">
+        <v>-0.05754913128174732</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>-0.03342744186645457</v>
+        <v>0.03941340834894404</v>
       </c>
       <c r="C14">
-        <v>0.03111705855315722</v>
+        <v>0.02690219884896187</v>
       </c>
       <c r="D14">
-        <v>-0.005401843396834268</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>-0.0140423499373339</v>
+      </c>
+      <c r="E14">
+        <v>0.03204752187596052</v>
+      </c>
+      <c r="F14">
+        <v>-0.01635953606970748</v>
+      </c>
+      <c r="G14">
+        <v>-0.01929499549514692</v>
+      </c>
+      <c r="H14">
+        <v>-0.0578349490223424</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B15">
-        <v>-0.04016142466515186</v>
+        <v>0.03950269196953906</v>
       </c>
       <c r="C15">
-        <v>0.007926103477697753</v>
+        <v>0.001555586565065578</v>
       </c>
       <c r="D15">
-        <v>-0.02229717540959387</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>-0.008736854827416542</v>
+      </c>
+      <c r="E15">
+        <v>0.03691573269145558</v>
+      </c>
+      <c r="F15">
+        <v>-0.0005640499827799016</v>
+      </c>
+      <c r="G15">
+        <v>-0.02984813205039467</v>
+      </c>
+      <c r="H15">
+        <v>-0.03127631272503621</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>-0.06096494421201003</v>
+        <v>0.0712954975364925</v>
       </c>
       <c r="C16">
-        <v>0.03879718510960354</v>
+        <v>0.02437498967774159</v>
       </c>
       <c r="D16">
-        <v>-0.04965538879659636</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>-0.06155493343377381</v>
+      </c>
+      <c r="E16">
+        <v>0.005066691412959898</v>
+      </c>
+      <c r="F16">
+        <v>-0.0314465569191745</v>
+      </c>
+      <c r="G16">
+        <v>-0.0150636520361914</v>
+      </c>
+      <c r="H16">
+        <v>-0.05537210458833473</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1133,22 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,10 +1159,22 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -957,108 +1185,204 @@
       <c r="D19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>-0.06367033429242362</v>
+        <v>0.06265889240034711</v>
       </c>
       <c r="C20">
-        <v>0.02315816484132214</v>
+        <v>0.007285924146471101</v>
       </c>
       <c r="D20">
-        <v>-0.04802064810203541</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>-0.03895540371510065</v>
+      </c>
+      <c r="E20">
+        <v>0.01789103508858868</v>
+      </c>
+      <c r="F20">
+        <v>-0.02745598739425628</v>
+      </c>
+      <c r="G20">
+        <v>-0.0189279560714766</v>
+      </c>
+      <c r="H20">
+        <v>-0.04464091157684073</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>-0.02690805144264992</v>
+        <v>0.02691260771316273</v>
       </c>
       <c r="C21">
-        <v>-0.001626890362040484</v>
+        <v>-0.008802144832292934</v>
       </c>
       <c r="D21">
-        <v>-0.02138580081651265</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>-0.02301851679505655</v>
+      </c>
+      <c r="E21">
+        <v>0.04601851386516133</v>
+      </c>
+      <c r="F21">
+        <v>0.01023207728726216</v>
+      </c>
+      <c r="G21">
+        <v>-0.004811239506007967</v>
+      </c>
+      <c r="H21">
+        <v>0.04789089419553392</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B22">
-        <v>-0.08013175978385652</v>
+        <v>0.06993414600612656</v>
       </c>
       <c r="C22">
-        <v>0.05896913569934366</v>
+        <v>0.03341663996247439</v>
       </c>
       <c r="D22">
-        <v>-0.1461478857356571</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>-0.1016154305820822</v>
+      </c>
+      <c r="E22">
+        <v>0.6013442214319737</v>
+      </c>
+      <c r="F22">
+        <v>0.1029450625373265</v>
+      </c>
+      <c r="G22">
+        <v>0.1398873843988244</v>
+      </c>
+      <c r="H22">
+        <v>0.1473692353125499</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B23">
-        <v>-0.08109961718392969</v>
+        <v>0.07084376004347397</v>
       </c>
       <c r="C23">
-        <v>0.05768061219604056</v>
+        <v>0.03214204996250684</v>
       </c>
       <c r="D23">
-        <v>-0.1474867323492388</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>-0.1026652904480687</v>
+      </c>
+      <c r="E23">
+        <v>0.6035648856385513</v>
+      </c>
+      <c r="F23">
+        <v>0.1024444621805843</v>
+      </c>
+      <c r="G23">
+        <v>0.1354713967915906</v>
+      </c>
+      <c r="H23">
+        <v>0.1422743144220005</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>-0.0755047658786398</v>
+        <v>0.08004832058354418</v>
       </c>
       <c r="C24">
-        <v>0.0496992105701959</v>
+        <v>0.0294902126030675</v>
       </c>
       <c r="D24">
-        <v>-0.06071922749002609</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>-0.06324874954349792</v>
+      </c>
+      <c r="E24">
+        <v>0.01371358060902198</v>
+      </c>
+      <c r="F24">
+        <v>-0.03885818764267571</v>
+      </c>
+      <c r="G24">
+        <v>-0.02529938104688288</v>
+      </c>
+      <c r="H24">
+        <v>-0.04295808396427123</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>-0.07458623680975092</v>
+        <v>0.07881231825533655</v>
       </c>
       <c r="C25">
-        <v>0.05251507264815013</v>
+        <v>0.03387317997898099</v>
       </c>
       <c r="D25">
-        <v>-0.06537915157411262</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>-0.05208926830403153</v>
+      </c>
+      <c r="E25">
+        <v>0.0206233001611667</v>
+      </c>
+      <c r="F25">
+        <v>-0.03283113268221503</v>
+      </c>
+      <c r="G25">
+        <v>-0.03638820041705676</v>
+      </c>
+      <c r="H25">
+        <v>-0.04937764079142327</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>-0.04443915507983288</v>
+        <v>0.04607978444987837</v>
       </c>
       <c r="C26">
-        <v>0.008242606925777371</v>
+        <v>-4.47096582275071e-06</v>
       </c>
       <c r="D26">
-        <v>-0.01430909015003775</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>-0.01855041655066123</v>
+      </c>
+      <c r="E26">
+        <v>0.04092916190650302</v>
+      </c>
+      <c r="F26">
+        <v>-0.03769607588073007</v>
+      </c>
+      <c r="G26">
+        <v>-0.00299685280730296</v>
+      </c>
+      <c r="H26">
+        <v>-0.05363053745624004</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,136 +1393,256 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>-0.05393087200163374</v>
+        <v>0.06934153235471506</v>
       </c>
       <c r="C28">
-        <v>0.07090639233089324</v>
+        <v>0.1061222957591419</v>
       </c>
       <c r="D28">
-        <v>0.3023964177116821</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>0.299244674784211</v>
+      </c>
+      <c r="E28">
+        <v>0.03469453040980595</v>
+      </c>
+      <c r="F28">
+        <v>-0.06395202924652335</v>
+      </c>
+      <c r="G28">
+        <v>-0.02954072209429296</v>
+      </c>
+      <c r="H28">
+        <v>0.04069068349326772</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>-0.04376267431330758</v>
+        <v>0.04785521337062297</v>
       </c>
       <c r="C29">
-        <v>0.02902293915875892</v>
+        <v>0.02371550344043538</v>
       </c>
       <c r="D29">
-        <v>-0.008786619079873789</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>-0.01071283060729749</v>
+      </c>
+      <c r="E29">
+        <v>0.06239379715672937</v>
+      </c>
+      <c r="F29">
+        <v>-0.01426382544813672</v>
+      </c>
+      <c r="G29">
+        <v>-0.00563757968179142</v>
+      </c>
+      <c r="H29">
+        <v>-0.07793164223750054</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>-0.1294927956562644</v>
+        <v>0.1283855426081487</v>
       </c>
       <c r="C30">
-        <v>0.08482497690631037</v>
+        <v>0.05474731419633957</v>
       </c>
       <c r="D30">
-        <v>-0.1074237849302285</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>-0.07760568646598549</v>
+      </c>
+      <c r="E30">
+        <v>0.08243054231697493</v>
+      </c>
+      <c r="F30">
+        <v>-0.01916946110688168</v>
+      </c>
+      <c r="G30">
+        <v>-0.07156732913770604</v>
+      </c>
+      <c r="H30">
+        <v>0.06788473992441124</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>-0.0459964257022174</v>
+        <v>0.04873388208767149</v>
       </c>
       <c r="C31">
-        <v>0.02181609517121546</v>
+        <v>0.01134367901492168</v>
       </c>
       <c r="D31">
-        <v>-0.02535778559003047</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>-0.03190113424184977</v>
+      </c>
+      <c r="E31">
+        <v>0.02173289326301163</v>
+      </c>
+      <c r="F31">
+        <v>-0.005820252478703705</v>
+      </c>
+      <c r="G31">
+        <v>0.01446825971275687</v>
+      </c>
+      <c r="H31">
+        <v>-0.07030576132335517</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>-0.03779402233172966</v>
+        <v>0.03962468979459362</v>
       </c>
       <c r="C32">
-        <v>0.02253996163498356</v>
+        <v>0.02033947776595727</v>
       </c>
       <c r="D32">
-        <v>-0.02290071218191242</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>-0.01113717614431423</v>
+      </c>
+      <c r="E32">
+        <v>0.05332412023503565</v>
+      </c>
+      <c r="F32">
+        <v>0.007664288896285982</v>
+      </c>
+      <c r="G32">
+        <v>-0.04768609588859511</v>
+      </c>
+      <c r="H32">
+        <v>-0.0486949719257671</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>-0.08574759148611186</v>
+        <v>0.09436546779562588</v>
       </c>
       <c r="C33">
-        <v>0.03800905246829471</v>
+        <v>0.02048409916393739</v>
       </c>
       <c r="D33">
-        <v>-0.05445229474888433</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>-0.04802243275021417</v>
+      </c>
+      <c r="E33">
+        <v>0.01716442380829083</v>
+      </c>
+      <c r="F33">
+        <v>-0.01037214349555987</v>
+      </c>
+      <c r="G33">
+        <v>-0.006630368387441489</v>
+      </c>
+      <c r="H33">
+        <v>-0.06196723388454887</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>-0.05889882721022473</v>
+        <v>0.06367429133757858</v>
       </c>
       <c r="C34">
-        <v>0.02419539798385498</v>
+        <v>0.00884127995862745</v>
       </c>
       <c r="D34">
-        <v>-0.05207476040657514</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>-0.04957363981700115</v>
+      </c>
+      <c r="E34">
+        <v>0.009111262802341905</v>
+      </c>
+      <c r="F34">
+        <v>-0.02174803090065783</v>
+      </c>
+      <c r="G34">
+        <v>-0.01583971098921502</v>
+      </c>
+      <c r="H34">
+        <v>-0.05859628339253911</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B35">
-        <v>-0.03645586458023947</v>
+        <v>0.03838474493057161</v>
       </c>
       <c r="C35">
-        <v>0.007005723619226257</v>
+        <v>0.001388610873216962</v>
       </c>
       <c r="D35">
-        <v>-0.01841455943113083</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>-0.01453268294096224</v>
+      </c>
+      <c r="E35">
+        <v>0.02105630161767105</v>
+      </c>
+      <c r="F35">
+        <v>0.0176841464259864</v>
+      </c>
+      <c r="G35">
+        <v>0.00566043852235147</v>
+      </c>
+      <c r="H35">
+        <v>-0.02235458667851038</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>-0.02418986061389964</v>
+        <v>0.02882642006723207</v>
       </c>
       <c r="C36">
-        <v>0.01728101005782219</v>
+        <v>0.01362396962552388</v>
       </c>
       <c r="D36">
-        <v>-0.02275050268183086</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>-0.01661996345678531</v>
+      </c>
+      <c r="E36">
+        <v>0.03009984739057123</v>
+      </c>
+      <c r="F36">
+        <v>-0.02533692151072348</v>
+      </c>
+      <c r="G36">
+        <v>0.001556751225831725</v>
+      </c>
+      <c r="H36">
+        <v>-0.04560047726063261</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,66 +1653,126 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>-0.04273399934528003</v>
+        <v>0.04380769919208009</v>
       </c>
       <c r="C38">
-        <v>0.001363256816107705</v>
+        <v>-0.006147088035105559</v>
       </c>
       <c r="D38">
-        <v>-0.02151243903260082</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>-0.02148120965966197</v>
+      </c>
+      <c r="E38">
+        <v>0.05037706299772233</v>
+      </c>
+      <c r="F38">
+        <v>0.008308145176580057</v>
+      </c>
+      <c r="G38">
+        <v>-0.008481181824030355</v>
+      </c>
+      <c r="H38">
+        <v>-0.03421739780863262</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>-0.092179814089299</v>
+        <v>0.1003194548490715</v>
       </c>
       <c r="C39">
-        <v>0.06660724454355328</v>
+        <v>0.04545813226224857</v>
       </c>
       <c r="D39">
-        <v>-0.05646052324963997</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>-0.06682693916699958</v>
+      </c>
+      <c r="E39">
+        <v>0.007471948306086659</v>
+      </c>
+      <c r="F39">
+        <v>0.0006810036205618461</v>
+      </c>
+      <c r="G39">
+        <v>-0.04882540323047131</v>
+      </c>
+      <c r="H39">
+        <v>-0.03037138028763305</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>-0.07898342267717609</v>
+        <v>0.06291332005345274</v>
       </c>
       <c r="C40">
-        <v>0.03339856933148417</v>
+        <v>0.005429138613110096</v>
       </c>
       <c r="D40">
-        <v>-0.006098300428503457</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>-0.03030792940832807</v>
+      </c>
+      <c r="E40">
+        <v>0.04098245758665812</v>
+      </c>
+      <c r="F40">
+        <v>0.04255768026698843</v>
+      </c>
+      <c r="G40">
+        <v>-0.03180265798298782</v>
+      </c>
+      <c r="H40">
+        <v>0.08611184493250187</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>-0.04317880232536444</v>
+        <v>0.04486564413513667</v>
       </c>
       <c r="C41">
-        <v>0.004772618868454893</v>
+        <v>-0.005310467074323634</v>
       </c>
       <c r="D41">
-        <v>-0.03790263869711719</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>-0.03261508255343341</v>
+      </c>
+      <c r="E41">
+        <v>0.002056614124281324</v>
+      </c>
+      <c r="F41">
+        <v>0.01498794936567818</v>
+      </c>
+      <c r="G41">
+        <v>-0.01611422797133857</v>
+      </c>
+      <c r="H41">
+        <v>-0.03205912560389802</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1783,74 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>-0.0524784982750596</v>
+        <v>0.05983409311366082</v>
       </c>
       <c r="C43">
-        <v>0.02525116410093769</v>
+        <v>0.01597253137276281</v>
       </c>
       <c r="D43">
-        <v>-0.01580735526891687</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>-0.02857141267524524</v>
+      </c>
+      <c r="E43">
+        <v>0.0216972654436486</v>
+      </c>
+      <c r="F43">
+        <v>-0.01403747958116694</v>
+      </c>
+      <c r="G43">
+        <v>0.01177794330490509</v>
+      </c>
+      <c r="H43">
+        <v>-0.07046900547776899</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>-0.09819782705805968</v>
+        <v>0.09545187127156957</v>
       </c>
       <c r="C44">
-        <v>0.08380123735656199</v>
+        <v>0.05549253130844355</v>
       </c>
       <c r="D44">
-        <v>-0.07773437559464394</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>-0.06876560855720347</v>
+      </c>
+      <c r="E44">
+        <v>0.07853538403439844</v>
+      </c>
+      <c r="F44">
+        <v>-0.07937678803295162</v>
+      </c>
+      <c r="G44">
+        <v>-0.02297107199519095</v>
+      </c>
+      <c r="H44">
+        <v>-0.03371750891912208</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,94 +1861,178 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>-0.02709597504688487</v>
+        <v>0.03519733798511838</v>
       </c>
       <c r="C46">
-        <v>0.01543163010011656</v>
+        <v>0.01074033373512392</v>
       </c>
       <c r="D46">
-        <v>-0.02993481650196417</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>-0.03605761265016295</v>
+      </c>
+      <c r="E46">
+        <v>0.03239273437341596</v>
+      </c>
+      <c r="F46">
+        <v>-0.01424461090119682</v>
+      </c>
+      <c r="G46">
+        <v>-0.005095870598466714</v>
+      </c>
+      <c r="H46">
+        <v>-0.03057339588315972</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>-0.03433335176367121</v>
+        <v>0.04040363676470017</v>
       </c>
       <c r="C47">
-        <v>0.02282259064518156</v>
+        <v>0.01809061148834291</v>
       </c>
       <c r="D47">
-        <v>-0.0001124267725469573</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>-0.006117330426817739</v>
+      </c>
+      <c r="E47">
+        <v>0.04094670098911852</v>
+      </c>
+      <c r="F47">
+        <v>0.009190126752633188</v>
+      </c>
+      <c r="G47">
+        <v>0.0287481755111757</v>
+      </c>
+      <c r="H47">
+        <v>-0.03016760842438761</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>-0.0348402055703329</v>
+        <v>0.03809838223789525</v>
       </c>
       <c r="C48">
-        <v>0.01750446399133194</v>
+        <v>0.009855685961004937</v>
       </c>
       <c r="D48">
-        <v>-0.03340052421854839</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>-0.02083864023613203</v>
+      </c>
+      <c r="E48">
+        <v>0.04036310405528879</v>
+      </c>
+      <c r="F48">
+        <v>-0.01003915006697555</v>
+      </c>
+      <c r="G48">
+        <v>-0.01974771382045535</v>
+      </c>
+      <c r="H48">
+        <v>-0.03508788511540594</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B49">
-        <v>-0.1641665709532218</v>
+        <v>0.1921315402428308</v>
       </c>
       <c r="C49">
-        <v>0.04803768994318443</v>
+        <v>0.02707790521574707</v>
       </c>
       <c r="D49">
-        <v>-0.0004261601144502791</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
+        <v>-0.03549512472319426</v>
+      </c>
+      <c r="E49">
+        <v>-0.1759906269186942</v>
+      </c>
+      <c r="F49">
+        <v>-0.05449072510821883</v>
+      </c>
+      <c r="G49">
+        <v>0.09300958673244039</v>
+      </c>
+      <c r="H49">
+        <v>0.2224401624272879</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>-0.04096378046698224</v>
+        <v>0.0453015693702607</v>
       </c>
       <c r="C50">
-        <v>0.01883597669822407</v>
+        <v>0.01047881805150563</v>
       </c>
       <c r="D50">
-        <v>-0.0454303546264266</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>-0.03752837244292131</v>
+      </c>
+      <c r="E50">
+        <v>0.03845787492564368</v>
+      </c>
+      <c r="F50">
+        <v>-0.007567967153503006</v>
+      </c>
+      <c r="G50">
+        <v>0.009210448359271716</v>
+      </c>
+      <c r="H50">
+        <v>-0.07116182574742227</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>-0.02871515492559937</v>
+        <v>0.0330863520919205</v>
       </c>
       <c r="C51">
-        <v>0.01024450615978699</v>
+        <v>0.005729065879144527</v>
       </c>
       <c r="D51">
-        <v>-0.004214090534689367</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>-0.005313744822556232</v>
+      </c>
+      <c r="E51">
+        <v>0.0065362540144265</v>
+      </c>
+      <c r="F51">
+        <v>-0.0117967032902223</v>
+      </c>
+      <c r="G51">
+        <v>0.004060198664154192</v>
+      </c>
+      <c r="H51">
+        <v>0.005041166253491484</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,66 +2043,126 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>-0.1574497568542501</v>
+        <v>0.1619514273785613</v>
       </c>
       <c r="C53">
-        <v>0.07094193524800298</v>
+        <v>0.04506566579071109</v>
       </c>
       <c r="D53">
-        <v>-0.0008588779508751728</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>-0.02401809458382101</v>
+      </c>
+      <c r="E53">
+        <v>-0.03488745477601479</v>
+      </c>
+      <c r="F53">
+        <v>0.00109931291859098</v>
+      </c>
+      <c r="G53">
+        <v>-0.0003734965598819566</v>
+      </c>
+      <c r="H53">
+        <v>-0.1876352218324379</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>-0.0567762267760747</v>
+        <v>0.05793072884564678</v>
       </c>
       <c r="C54">
-        <v>0.02105935925641727</v>
+        <v>0.01203298919505893</v>
       </c>
       <c r="D54">
-        <v>-0.01760834761453426</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>-0.01431550542255352</v>
+      </c>
+      <c r="E54">
+        <v>0.05521541465397379</v>
+      </c>
+      <c r="F54">
+        <v>-0.01096379988505558</v>
+      </c>
+      <c r="G54">
+        <v>-0.04363372464290712</v>
+      </c>
+      <c r="H54">
+        <v>-0.04623053097153215</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>-0.1005038200650759</v>
+        <v>0.1040310252528521</v>
       </c>
       <c r="C55">
-        <v>0.04850344362838094</v>
+        <v>0.03087654090388226</v>
       </c>
       <c r="D55">
-        <v>-0.022611401942394</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>-0.02867242164119136</v>
+      </c>
+      <c r="E55">
+        <v>0.004948740940769645</v>
+      </c>
+      <c r="F55">
+        <v>-0.009559057878446643</v>
+      </c>
+      <c r="G55">
+        <v>-0.007702501435648672</v>
+      </c>
+      <c r="H55">
+        <v>-0.1509799390373215</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>-0.1522894238429974</v>
+        <v>0.1596523961052393</v>
       </c>
       <c r="C56">
-        <v>0.08145882807712171</v>
+        <v>0.05407337408351415</v>
       </c>
       <c r="D56">
-        <v>-0.01119833156186471</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>-0.03541610563197314</v>
+      </c>
+      <c r="E56">
+        <v>-0.0225530284192179</v>
+      </c>
+      <c r="F56">
+        <v>-0.02059512639949784</v>
+      </c>
+      <c r="G56">
+        <v>0.003390699315817576</v>
+      </c>
+      <c r="H56">
+        <v>-0.1952059301633581</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,542 +2173,1010 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>-0.1314425120636451</v>
+        <v>0.09912419820419772</v>
       </c>
       <c r="C58">
-        <v>-0.006249018155804139</v>
+        <v>-0.04891762973709037</v>
       </c>
       <c r="D58">
-        <v>-0.02364452568394039</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>-0.03256809309387093</v>
+      </c>
+      <c r="E58">
+        <v>0.1426499165990722</v>
+      </c>
+      <c r="F58">
+        <v>-0.007343046803108577</v>
+      </c>
+      <c r="G58">
+        <v>0.08431915175993368</v>
+      </c>
+      <c r="H58">
+        <v>0.1920215126842173</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>-0.1279056218148537</v>
+        <v>0.1458101402287711</v>
       </c>
       <c r="C59">
-        <v>0.07820777709348567</v>
+        <v>0.1112850084101435</v>
       </c>
       <c r="D59">
-        <v>0.3815370941733503</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>0.3562220004078107</v>
+      </c>
+      <c r="E59">
+        <v>0.03538656140231131</v>
+      </c>
+      <c r="F59">
+        <v>-0.002215230809078314</v>
+      </c>
+      <c r="G59">
+        <v>0.01933609351790242</v>
+      </c>
+      <c r="H59">
+        <v>-0.004009057705912262</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>-0.209983478244595</v>
+        <v>0.2389232831879189</v>
       </c>
       <c r="C60">
-        <v>0.0888344301529717</v>
+        <v>0.05942979846042736</v>
       </c>
       <c r="D60">
-        <v>-0.02235639070750977</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>-0.04526601730705751</v>
+      </c>
+      <c r="E60">
+        <v>-0.1142765924113533</v>
+      </c>
+      <c r="F60">
+        <v>-0.05566295123480696</v>
+      </c>
+      <c r="G60">
+        <v>0.007391629013226771</v>
+      </c>
+      <c r="H60">
+        <v>0.158464300956211</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>-0.08257318699693074</v>
+        <v>0.08806302523163508</v>
       </c>
       <c r="C61">
-        <v>0.04691570486225403</v>
+        <v>0.0306303979529547</v>
       </c>
       <c r="D61">
-        <v>-0.03536293623051272</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>-0.04214201944197566</v>
+      </c>
+      <c r="E61">
+        <v>0.00704023231050904</v>
+      </c>
+      <c r="F61">
+        <v>0.0005252867476557258</v>
+      </c>
+      <c r="G61">
+        <v>-0.01291425158561619</v>
+      </c>
+      <c r="H61">
+        <v>-0.06508201806827678</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B62">
-        <v>-0.1315272225817744</v>
+        <v>0.1366635146726566</v>
       </c>
       <c r="C62">
-        <v>0.05681112555078812</v>
+        <v>0.03042746505181532</v>
       </c>
       <c r="D62">
-        <v>-0.01982724435890199</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
+        <v>-0.04400079150052036</v>
+      </c>
+      <c r="E62">
+        <v>-0.05486826464125417</v>
+      </c>
+      <c r="F62">
+        <v>0.009309749780646939</v>
+      </c>
+      <c r="G62">
+        <v>-0.03962451010306764</v>
+      </c>
+      <c r="H62">
+        <v>-0.1824017995879866</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>-0.05218757109472064</v>
+        <v>0.05221373958674377</v>
       </c>
       <c r="C63">
-        <v>0.02291084675797937</v>
+        <v>0.01370344620163325</v>
       </c>
       <c r="D63">
-        <v>-0.02592214093161196</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>-0.02040473541146322</v>
+      </c>
+      <c r="E63">
+        <v>0.04709280341228517</v>
+      </c>
+      <c r="F63">
+        <v>0.002056648743756116</v>
+      </c>
+      <c r="G63">
+        <v>-0.02356952333395911</v>
+      </c>
+      <c r="H63">
+        <v>-0.03883872759647927</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>-0.105274281112237</v>
+        <v>0.1097757400245573</v>
       </c>
       <c r="C64">
-        <v>0.02778494910754915</v>
+        <v>0.0131450191977676</v>
       </c>
       <c r="D64">
-        <v>-0.03523092616187248</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>-0.02961243912292404</v>
+      </c>
+      <c r="E64">
+        <v>0.03451241843784862</v>
+      </c>
+      <c r="F64">
+        <v>-0.04438804908879088</v>
+      </c>
+      <c r="G64">
+        <v>-0.06166491560737867</v>
+      </c>
+      <c r="H64">
+        <v>-0.0350115863591527</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>-0.1310703242741643</v>
+        <v>0.1315748330183287</v>
       </c>
       <c r="C65">
-        <v>0.05754378021507744</v>
+        <v>0.03971363588518942</v>
       </c>
       <c r="D65">
-        <v>-0.003090059687275025</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>-0.00883022167906946</v>
+      </c>
+      <c r="E65">
+        <v>-0.001647042285600435</v>
+      </c>
+      <c r="F65">
+        <v>-0.05562927595745345</v>
+      </c>
+      <c r="G65">
+        <v>-0.05403274381804711</v>
+      </c>
+      <c r="H65">
+        <v>0.1698238069402151</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>-0.1494075683828588</v>
+        <v>0.1521334424686716</v>
       </c>
       <c r="C66">
-        <v>0.06418239538539719</v>
+        <v>0.03183113508066527</v>
       </c>
       <c r="D66">
-        <v>-0.1003592048821911</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>-0.1000292352380517</v>
+      </c>
+      <c r="E66">
+        <v>-0.02041245592516817</v>
+      </c>
+      <c r="F66">
+        <v>-0.001763470996526845</v>
+      </c>
+      <c r="G66">
+        <v>-0.06437341840527588</v>
+      </c>
+      <c r="H66">
+        <v>-0.09753438088835238</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>-0.07552872555884571</v>
+        <v>0.08426739033423583</v>
       </c>
       <c r="C67">
-        <v>0.008127791467837608</v>
+        <v>-0.002488530511255778</v>
       </c>
       <c r="D67">
-        <v>-0.02489514369191445</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>-0.03304365023085128</v>
+      </c>
+      <c r="E67">
+        <v>0.01518980435117105</v>
+      </c>
+      <c r="F67">
+        <v>-0.0133512141461331</v>
+      </c>
+      <c r="G67">
+        <v>0.006105344093244224</v>
+      </c>
+      <c r="H67">
+        <v>-0.04313032639009991</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>-0.06133955533884154</v>
+        <v>0.06425223476518661</v>
       </c>
       <c r="C68">
-        <v>0.05060608988781374</v>
+        <v>0.07967263382069616</v>
       </c>
       <c r="D68">
-        <v>0.2552133053208533</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>0.2648566384749748</v>
+      </c>
+      <c r="E68">
+        <v>0.04243967083723454</v>
+      </c>
+      <c r="F68">
+        <v>-0.01251844972581791</v>
+      </c>
+      <c r="G68">
+        <v>0.01018428999075162</v>
+      </c>
+      <c r="H68">
+        <v>-0.01056219398389102</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>-0.05250575251938967</v>
+        <v>0.05212851308412402</v>
       </c>
       <c r="C69">
-        <v>0.01484213002049043</v>
+        <v>0.00304864286559065</v>
       </c>
       <c r="D69">
-        <v>-0.02492597421288944</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>-0.0202135076455963</v>
+      </c>
+      <c r="E69">
+        <v>0.02337366940623314</v>
+      </c>
+      <c r="F69">
+        <v>0.01300035605021503</v>
+      </c>
+      <c r="G69">
+        <v>0.00493423023209594</v>
+      </c>
+      <c r="H69">
+        <v>-0.05376002608844244</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B70">
-        <v>-0.002782854384600497</v>
+        <v>0.02680477694284559</v>
       </c>
       <c r="C70">
-        <v>-0.00839583746868929</v>
+        <v>-0.003353266814375965</v>
       </c>
       <c r="D70">
-        <v>0.009782168342283798</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
+        <v>0.005922351960223206</v>
+      </c>
+      <c r="E70">
+        <v>-0.02322130457618089</v>
+      </c>
+      <c r="F70">
+        <v>-0.008495912145836828</v>
+      </c>
+      <c r="G70">
+        <v>0.0221149745788052</v>
+      </c>
+      <c r="H70">
+        <v>0.01020912903351176</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>-0.05919591925493763</v>
+        <v>0.06811819392200673</v>
       </c>
       <c r="C71">
-        <v>0.05017354378637558</v>
+        <v>0.08737021695352401</v>
       </c>
       <c r="D71">
-        <v>0.2904760331373036</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>0.2925297349084875</v>
+      </c>
+      <c r="E71">
+        <v>0.03891817978252972</v>
+      </c>
+      <c r="F71">
+        <v>-0.04333064487123547</v>
+      </c>
+      <c r="G71">
+        <v>0.004787878832916839</v>
+      </c>
+      <c r="H71">
+        <v>-0.0119824299642304</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>-0.1427575864035966</v>
+        <v>0.1446285546381076</v>
       </c>
       <c r="C72">
-        <v>0.05618923898364258</v>
+        <v>0.03081138337369537</v>
       </c>
       <c r="D72">
-        <v>-0.0008763719459602272</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>-0.001256083669547824</v>
+      </c>
+      <c r="E72">
+        <v>-0.06199862559148327</v>
+      </c>
+      <c r="F72">
+        <v>0.1615129741278288</v>
+      </c>
+      <c r="G72">
+        <v>-0.1132305258408175</v>
+      </c>
+      <c r="H72">
+        <v>0.025864361306354</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>-0.2874836298349486</v>
+        <v>0.2877724457983689</v>
       </c>
       <c r="C73">
-        <v>0.08859637467860072</v>
+        <v>0.02337935789157328</v>
       </c>
       <c r="D73">
-        <v>-0.04470398560665959</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>-0.1018031598944178</v>
+      </c>
+      <c r="E73">
+        <v>-0.2370742949351816</v>
+      </c>
+      <c r="F73">
+        <v>-0.0795891591550832</v>
+      </c>
+      <c r="G73">
+        <v>0.2270003876833157</v>
+      </c>
+      <c r="H73">
+        <v>0.4650800564574463</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>-0.08324639348310239</v>
+        <v>0.09152203258939512</v>
       </c>
       <c r="C74">
-        <v>0.07420628557804143</v>
+        <v>0.05574860509398827</v>
       </c>
       <c r="D74">
-        <v>-0.009977148646576998</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>-0.03808781344077699</v>
+      </c>
+      <c r="E74">
+        <v>-0.007244735245897587</v>
+      </c>
+      <c r="F74">
+        <v>0.006053162805184415</v>
+      </c>
+      <c r="G74">
+        <v>0.03239391056020418</v>
+      </c>
+      <c r="H74">
+        <v>-0.1259679683488655</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>-0.09982865254583742</v>
+        <v>0.1033786573031502</v>
       </c>
       <c r="C75">
-        <v>0.04725607336589309</v>
+        <v>0.02354287270313129</v>
       </c>
       <c r="D75">
-        <v>-0.0117793418507853</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>-0.02389028774718686</v>
+      </c>
+      <c r="E75">
+        <v>-0.005886432662754161</v>
+      </c>
+      <c r="F75">
+        <v>-0.003244140870941495</v>
+      </c>
+      <c r="G75">
+        <v>0.01095302093714552</v>
+      </c>
+      <c r="H75">
+        <v>-0.1103090922156833</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>-0.1340248932181221</v>
+        <v>0.1434130469631106</v>
       </c>
       <c r="C76">
-        <v>0.07629157302282716</v>
+        <v>0.05232238976829383</v>
       </c>
       <c r="D76">
-        <v>-0.0330061917160057</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>-0.04974692208385163</v>
+      </c>
+      <c r="E76">
+        <v>0.01223674737229838</v>
+      </c>
+      <c r="F76">
+        <v>-0.03340695074839832</v>
+      </c>
+      <c r="G76">
+        <v>-0.004952716244727724</v>
+      </c>
+      <c r="H76">
+        <v>-0.2157147360802215</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>-0.1170880414335418</v>
+        <v>0.1037719887659514</v>
       </c>
       <c r="C77">
-        <v>0.007514682896988359</v>
+        <v>-0.02179981728061802</v>
       </c>
       <c r="D77">
-        <v>-0.08525277017945827</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>-0.03635611267744622</v>
+      </c>
+      <c r="E77">
+        <v>0.05692340397743306</v>
+      </c>
+      <c r="F77">
+        <v>-0.1028501336247497</v>
+      </c>
+      <c r="G77">
+        <v>-0.8459716614546207</v>
+      </c>
+      <c r="H77">
+        <v>0.2383224722188394</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>-0.1076379939731607</v>
+        <v>0.1500805095143278</v>
       </c>
       <c r="C78">
-        <v>0.03348302435138084</v>
+        <v>0.02905060499369234</v>
       </c>
       <c r="D78">
-        <v>-0.09220592589414252</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>-0.07959244872021824</v>
+      </c>
+      <c r="E78">
+        <v>0.04674781030021499</v>
+      </c>
+      <c r="F78">
+        <v>-0.06926128479285944</v>
+      </c>
+      <c r="G78">
+        <v>-0.07251248898864845</v>
+      </c>
+      <c r="H78">
+        <v>0.04994547574960946</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B79">
-        <v>-0.1490321495372008</v>
+        <v>0.1492304658261674</v>
       </c>
       <c r="C79">
-        <v>0.06698839316375921</v>
+        <v>0.03545626432524597</v>
       </c>
       <c r="D79">
-        <v>-0.02230589722664221</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>-0.03672900483464901</v>
+      </c>
+      <c r="E79">
+        <v>-0.02090763671379733</v>
+      </c>
+      <c r="F79">
+        <v>-0.0132805672253933</v>
+      </c>
+      <c r="G79">
+        <v>0.005377028602254218</v>
+      </c>
+      <c r="H79">
+        <v>-0.163254605379593</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>-0.04109911677701913</v>
+        <v>0.04173797976930112</v>
       </c>
       <c r="C80">
-        <v>0.01887346406320089</v>
+        <v>0.01188946810987015</v>
       </c>
       <c r="D80">
-        <v>-0.03083949454484375</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>-0.01718793100845899</v>
+      </c>
+      <c r="E80">
+        <v>-0.03198886947697192</v>
+      </c>
+      <c r="F80">
+        <v>-0.003000968753501785</v>
+      </c>
+      <c r="G80">
+        <v>0.02149198870094095</v>
+      </c>
+      <c r="H80">
+        <v>-0.04077033977085223</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>-0.1205622334835346</v>
+        <v>0.1216511338708395</v>
       </c>
       <c r="C81">
-        <v>0.05609458242677397</v>
+        <v>0.03129741780892954</v>
       </c>
       <c r="D81">
-        <v>-0.03192584708881996</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>-0.02989628899259189</v>
+      </c>
+      <c r="E81">
+        <v>0.001428495935785932</v>
+      </c>
+      <c r="F81">
+        <v>-0.00516944588045143</v>
+      </c>
+      <c r="G81">
+        <v>0.02932141815648291</v>
+      </c>
+      <c r="H81">
+        <v>-0.161518771207846</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B82">
-        <v>-0.132427183124819</v>
+        <v>0.1315824221594177</v>
       </c>
       <c r="C82">
-        <v>0.0692553450789718</v>
+        <v>0.04426715299479612</v>
       </c>
       <c r="D82">
-        <v>-0.01118799346891668</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>-0.03361634252787294</v>
+      </c>
+      <c r="E82">
+        <v>-0.02527130315006299</v>
+      </c>
+      <c r="F82">
+        <v>-0.04061725880731586</v>
+      </c>
+      <c r="G82">
+        <v>0.0210099853563377</v>
+      </c>
+      <c r="H82">
+        <v>-0.2273374316930283</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>-0.0695390352030056</v>
+        <v>0.08335585335808758</v>
       </c>
       <c r="C83">
-        <v>-0.02716440082788529</v>
+        <v>-0.03798150035890119</v>
       </c>
       <c r="D83">
-        <v>-0.01416605740980799</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>-0.02120637944833986</v>
+      </c>
+      <c r="E83">
+        <v>0.02070245197740156</v>
+      </c>
+      <c r="F83">
+        <v>-0.04626211950197981</v>
+      </c>
+      <c r="G83">
+        <v>0.06685027871714705</v>
+      </c>
+      <c r="H83">
+        <v>0.02347354759544052</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B84">
-        <v>-0.02948720742113514</v>
+        <v>0.03836416577102337</v>
       </c>
       <c r="C84">
-        <v>0.02763848626400015</v>
+        <v>0.02194597176095402</v>
       </c>
       <c r="D84">
-        <v>-0.03263601036010801</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>-0.03283081609751631</v>
+      </c>
+      <c r="E84">
+        <v>0.02994975145856506</v>
+      </c>
+      <c r="F84">
+        <v>0.04581908343093754</v>
+      </c>
+      <c r="G84">
+        <v>0.05678729999745512</v>
+      </c>
+      <c r="H84">
+        <v>-0.01579553932528057</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>-0.116761262799999</v>
+        <v>0.1201867286451179</v>
       </c>
       <c r="C85">
-        <v>0.04053111016580896</v>
+        <v>0.01767736494929695</v>
       </c>
       <c r="D85">
-        <v>-0.04506242709633083</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>-0.03888977155342719</v>
+      </c>
+      <c r="E85">
+        <v>0.01182745271521789</v>
+      </c>
+      <c r="F85">
+        <v>-0.02891283313351629</v>
+      </c>
+      <c r="G85">
+        <v>0.01056069731303363</v>
+      </c>
+      <c r="H85">
+        <v>-0.1525041291227471</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>-0.0530735082742</v>
+        <v>0.05617525533156608</v>
       </c>
       <c r="C86">
-        <v>0.02071134427054328</v>
+        <v>0.008181623632066625</v>
       </c>
       <c r="D86">
-        <v>-0.06122454398452773</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>-0.03508030096074857</v>
+      </c>
+      <c r="E86">
+        <v>0.04214538830769061</v>
+      </c>
+      <c r="F86">
+        <v>-0.03611469775370128</v>
+      </c>
+      <c r="G86">
+        <v>0.03261583962455641</v>
+      </c>
+      <c r="H86">
+        <v>0.01996396542731576</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>-0.12226958642068</v>
+        <v>0.1250510782363982</v>
       </c>
       <c r="C87">
-        <v>0.06481706869192551</v>
+        <v>0.03190285681862758</v>
       </c>
       <c r="D87">
-        <v>-0.07048830012386842</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>-0.0654984697981056</v>
+      </c>
+      <c r="E87">
+        <v>0.02199663495366137</v>
+      </c>
+      <c r="F87">
+        <v>-0.01698118389295211</v>
+      </c>
+      <c r="G87">
+        <v>-0.1284786604829874</v>
+      </c>
+      <c r="H87">
+        <v>0.06517391831030345</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>-0.05327719324984306</v>
+        <v>0.06189039454021203</v>
       </c>
       <c r="C88">
-        <v>0.02786248014624022</v>
+        <v>0.01789290407934603</v>
       </c>
       <c r="D88">
-        <v>-0.02646741659328915</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>-0.03823727183615091</v>
+      </c>
+      <c r="E88">
+        <v>0.01417913587450834</v>
+      </c>
+      <c r="F88">
+        <v>-0.01268508946105677</v>
+      </c>
+      <c r="G88">
+        <v>-0.01486996207270101</v>
+      </c>
+      <c r="H88">
+        <v>-0.04728129708697238</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>-0.09168105107280483</v>
+        <v>0.1053843994307787</v>
       </c>
       <c r="C89">
-        <v>0.07175815846127889</v>
+        <v>0.1106476272614311</v>
       </c>
       <c r="D89">
-        <v>0.3340799150548067</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>0.340112095931456</v>
+      </c>
+      <c r="E89">
+        <v>0.0727712765730677</v>
+      </c>
+      <c r="F89">
+        <v>-0.06871814196345</v>
+      </c>
+      <c r="G89">
+        <v>0.03024088539543166</v>
+      </c>
+      <c r="H89">
+        <v>-0.01395087894083288</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>-0.07440789764644679</v>
+        <v>0.08489780190451462</v>
       </c>
       <c r="C90">
-        <v>0.0611108692815235</v>
+        <v>0.09312306900025147</v>
       </c>
       <c r="D90">
-        <v>0.2823191318327486</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>0.2822292071115555</v>
+      </c>
+      <c r="E90">
+        <v>0.05359572828252754</v>
+      </c>
+      <c r="F90">
+        <v>-0.03419412049121247</v>
+      </c>
+      <c r="G90">
+        <v>-0.02208611474481143</v>
+      </c>
+      <c r="H90">
+        <v>0.0107050642183951</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>-0.08888519394382119</v>
+        <v>0.09129310471776207</v>
       </c>
       <c r="C91">
-        <v>0.04907597080652188</v>
+        <v>0.02817779279965548</v>
       </c>
       <c r="D91">
-        <v>-0.0220426840012927</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>-0.0315097107338415</v>
+      </c>
+      <c r="E91">
+        <v>0.003438742269635289</v>
+      </c>
+      <c r="F91">
+        <v>0.001801322235915226</v>
+      </c>
+      <c r="G91">
+        <v>0.02759002195422933</v>
+      </c>
+      <c r="H91">
+        <v>-0.09172918209954097</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>-0.07723063377028286</v>
+        <v>0.08759275850636183</v>
       </c>
       <c r="C92">
-        <v>0.07488526924346504</v>
+        <v>0.1139151828379212</v>
       </c>
       <c r="D92">
-        <v>0.3407060806275399</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>0.3376386219720263</v>
+      </c>
+      <c r="E92">
+        <v>0.04643557155086234</v>
+      </c>
+      <c r="F92">
+        <v>-0.03508891976603815</v>
+      </c>
+      <c r="G92">
+        <v>-0.008022642111820855</v>
+      </c>
+      <c r="H92">
+        <v>-0.01284038178314423</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>-0.06751667962044577</v>
+        <v>0.08143394336167159</v>
       </c>
       <c r="C93">
-        <v>0.065551926222629</v>
+        <v>0.1038560010347859</v>
       </c>
       <c r="D93">
-        <v>0.2977766844625394</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>0.2977055627438897</v>
+      </c>
+      <c r="E93">
+        <v>0.02950177167100602</v>
+      </c>
+      <c r="F93">
+        <v>-0.03023120677660243</v>
+      </c>
+      <c r="G93">
+        <v>-0.009264578288027833</v>
+      </c>
+      <c r="H93">
+        <v>0.006479285075169696</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>-0.1346544717848228</v>
+        <v>0.1292902257988357</v>
       </c>
       <c r="C94">
-        <v>0.0421591272163554</v>
+        <v>0.01048333642586236</v>
       </c>
       <c r="D94">
-        <v>-0.04066223799113232</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>-0.0489924079567638</v>
+      </c>
+      <c r="E94">
+        <v>-0.02079200556187116</v>
+      </c>
+      <c r="F94">
+        <v>-0.01389351689247527</v>
+      </c>
+      <c r="G94">
+        <v>0.0478000846217879</v>
+      </c>
+      <c r="H94">
+        <v>-0.1165915479964289</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>-0.1207945872262842</v>
+        <v>0.1287682051853208</v>
       </c>
       <c r="C95">
-        <v>0.01914776894562523</v>
+        <v>-0.005652894481452448</v>
       </c>
       <c r="D95">
-        <v>-0.05330127372553537</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>-0.0601673271184116</v>
+      </c>
+      <c r="E95">
+        <v>0.01039430759329919</v>
+      </c>
+      <c r="F95">
+        <v>-0.05438666087199914</v>
+      </c>
+      <c r="G95">
+        <v>-0.03052507508268352</v>
+      </c>
+      <c r="H95">
+        <v>0.04564628128505508</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,52 +3187,100 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B97">
-        <v>-0.2167569632673044</v>
+        <v>0.1980632604145422</v>
       </c>
       <c r="C97">
-        <v>0.04077164706480602</v>
+        <v>-0.001936434436122696</v>
       </c>
       <c r="D97">
-        <v>0.09477660641162662</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
+        <v>0.06999813444512736</v>
+      </c>
+      <c r="E97">
+        <v>-0.1190627651368659</v>
+      </c>
+      <c r="F97">
+        <v>0.9224391666680922</v>
+      </c>
+      <c r="G97">
+        <v>-0.08589497912137871</v>
+      </c>
+      <c r="H97">
+        <v>0.02705347535000572</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>-0.2455547851155644</v>
+        <v>0.2748160990994319</v>
       </c>
       <c r="C98">
-        <v>0.05416518490531996</v>
+        <v>0.01724987055926669</v>
       </c>
       <c r="D98">
-        <v>-0.02529453688003148</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>-0.05126156085307751</v>
+      </c>
+      <c r="E98">
+        <v>-0.1996867307102674</v>
+      </c>
+      <c r="F98">
+        <v>-0.053798326724688</v>
+      </c>
+      <c r="G98">
+        <v>0.2787257159945279</v>
+      </c>
+      <c r="H98">
+        <v>0.1777462430903848</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B99">
-        <v>-0.3920090485881009</v>
+        <v>0.260097915604974</v>
       </c>
       <c r="C99">
-        <v>-0.9015777795391094</v>
+        <v>-0.9249834178767637</v>
       </c>
       <c r="D99">
-        <v>0.06278139304417903</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4">
+        <v>0.2065578574910996</v>
+      </c>
+      <c r="E99">
+        <v>0.07001782719167707</v>
+      </c>
+      <c r="F99">
+        <v>-0.05908680298304267</v>
+      </c>
+      <c r="G99">
+        <v>0.01130834534962109</v>
+      </c>
+      <c r="H99">
+        <v>-0.07251807280706252</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,24 +3291,48 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>-0.04355810698908133</v>
+        <v>0.04776385441221817</v>
       </c>
       <c r="C101">
-        <v>0.02914607015794984</v>
+        <v>0.02394747690346743</v>
       </c>
       <c r="D101">
-        <v>-0.009615492705313689</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>-0.0110116314080881</v>
+      </c>
+      <c r="E101">
+        <v>0.06229872639490944</v>
+      </c>
+      <c r="F101">
+        <v>-0.01381837214182734</v>
+      </c>
+      <c r="G101">
+        <v>-0.004826201989278626</v>
+      </c>
+      <c r="H101">
+        <v>-0.07695822892490459</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -2119,10 +3343,22 @@
       <c r="D102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:4">
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+      <c r="G102">
+        <v>0</v>
+      </c>
+      <c r="H102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +3369,22 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +3393,18 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
         <v>0</v>
       </c>
     </row>
